--- a/testData/Users.xlsx
+++ b/testData/Users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeethumolPS\Desktop\EIDSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeethumolPS\eclipse-workspace\EndToEnd_EIDSA\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC12E7E8-8A7F-4DE7-BC80-3832C9F9E02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCA41CB-8814-426F-B645-0246CF6DB454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,15 +49,6 @@
     <t>Neethu</t>
   </si>
   <si>
-    <t>Gokul</t>
-  </si>
-  <si>
-    <t>Neethug</t>
-  </si>
-  <si>
-    <t>neethug@yopmail.com</t>
-  </si>
-  <si>
     <t>option 1</t>
   </si>
   <si>
@@ -65,6 +56,15 @@
   </si>
   <si>
     <t>mail</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Neethus</t>
+  </si>
+  <si>
+    <t>neethus@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -396,20 +396,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,24 +429,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -462,22 +462,22 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" customWidth="1"/>
+    <col min="1" max="1" width="43.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
